--- a/excel-output/HotelSortedName.xlsx
+++ b/excel-output/HotelSortedName.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>After Searched</t>
   </si>
@@ -34,26 +34,26 @@
 Breakfast included
 Only 1 left at this price
 Special Discount
-9% off
-₹ 6,265
-₹ 5,648
-Total price: ₹ 33,378
+13% off
+₹ 6,316
+₹ 5,370
+Total price: ₹ 31,735
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
   </si>
   <si>
-    <t>Muthu Silver Springs Hotel Nairobi
-8.4/10
+    <t>Woodmere Serviced Apartment
+8.6/10
 Very good69 reviews
 Near Yaya CentreShow on Map
-Family Suite
-x4
-Member deal
-₹ 276 off
-₹ 18,379
-₹ 18,103
-Total price: ₹ 115,863
+Standard Two-Bedroom Apartment
+x4
+Entire unit 59㎡
+2 bedrooms
+2 beds
+₹ 5,339
+Total price: ₹ 31,470
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -68,8 +68,8 @@
 Family Room
 x4
 Free Cancellation
-₹ 22,199
-Total price: ₹ 142,070
+₹ 22,207
+Total price: ₹ 142,125
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -84,8 +84,8 @@
 2 bedrooms
 2 beds
 Only 1 left at this price
-₹ 5,153
-Total price: ₹ 29,885
+₹ 5,155
+Total price: ₹ 29,897
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -96,9 +96,9 @@
 Near Yaya CentreShow on Map
 Standard Quadruple Room
 x4
-Last booked 17 hrs ago
-₹ 4,875
-Total price: ₹ 29,941
+Last booked 18 hrs ago
+₹ 4,876
+Total price: ₹ 29,952
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -114,53 +114,29 @@
 x4
 Free Cancellation
 Breakfast included
-Last booked 15 hrs ago
-₹ 208,657
-Total price: ₹ 1,317,254
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Eastland Hotel
-7.7/10
-Good40 reviews
-"Great location"
-Near Yaya CentreShow on Map
-Presidential Suite
-x4
-Free Cancellation
-Breakfast included
 Last booked 16 hrs ago
-₹ 71,465
-Total price: ₹ 445,555
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Lux Suites Riara One Residency Angama
-Opened in 2025
-9.9/10
-Outstanding17 reviews
-"Clean and tidy"
-"Great location"
-Near Yaya CentreShow on Map
-Family Room
-x4
-Entire apartment 98㎡
-2 bedrooms
-2 beds
-Free Cancellation
-Breakfast included
-Earn ₹ 1,346.20 in Trip Coins
-Only 5 left at this price
-Special Discount
-8% off
-₹ 16,680
-₹ 15,202
-Total price: ₹ 89,689
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
+₹ 207,571
+Total price: ₹ 1,310,397
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Highlands Suites Hotel Apartments
+8.3/10
+Very good27 reviews
+Near Yaya CentreShow on Map
+Two-Bedroom Apartment
+x4
+Entire unit
+2 bedrooms
+2 beds
+Member deal
+10% off
+₹ 8,205
+₹ 7,255
+Total price: ₹ 42,729
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
   </si>
   <si>
     <t>Yaya Hotel &amp; Apartments
@@ -176,44 +152,44 @@
 2 bedrooms
 2 beds
 Free Cancellation
-Earn ₹ 988.50 in Trip Coins
+Earn ₹ 988.86 in Trip Coins
 Limited Time Offer
 14% off
-₹ 19,974
-₹ 16,746
-Total price: ₹ 98,802
+₹ 19,982
+₹ 16,752
+Total price: ₹ 98,836
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
   </si>
   <si>
-    <t>Maskan Suites
-8.9/10
-Very good34 reviews
-Near Yaya CentreShow on Map
-Superior Apartment, 2 Bedrooms, Private Bathroom, City View
-x4
-Entire apartment
-2 bedrooms
-2 beds
-Free Cancellation
-₹ 7,071
-Total price: ₹ 41,684
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Woodmere Serviced Apartment
-8.6/10
-Very good69 reviews
-Near Yaya CentreShow on Map
+    <t>Fedha Residences by Trianum
+9.1/10
+Great52 reviews
+"Great service"
+"Great rooms"
+Near Yaya CentreShow on Map
+Executive Two Bedrooms Apartment
+x4
+Only 5 left at this price
+₹ 9,168
+Total price: ₹ 54,090
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability
+Sign in for member prices</t>
+  </si>
+  <si>
+    <t>Eldon Apartments &amp; Suites
+7.1/10
+5 reviews
+Near Wilson AirportShow on Map
 Standard Two-Bedroom Apartment
 x4
-Entire unit 59㎡
-2 bedrooms
-2 beds
-₹ 5,337
-Total price: ₹ 31,458
+Entire apartment 18㎡
+2 bedrooms
+3 beds
+₹ 3,822
+Total price: ₹ 22,552
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -230,29 +206,24 @@
 Entire unit 108㎡
 2 bedrooms
 2 beds
-Member deal
-₹ 1,087 off
-₹ 24,013
-₹ 22,926
-Total price: ₹ 142,935
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Emara Ole-Sereni
-8.4/10
-Very good62 reviews
-Near Amboseli EstateShow on Map
-No. 16 of 4-Star Select Hotels in Nairobi
-Family Apartment
-x4
-Entire unit 52㎡
-2 bedrooms
-1 bed
-Free Cancellation
-Last booked 14 hrs ago
-₹ 61,438
-Total price: ₹ 362,483
+₹ 25,168
+Total price: ₹ 157,303
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Maskan Suites
+8.9/10
+Very good34 reviews
+Near Yaya CentreShow on Map
+Superior Apartment, 2 Bedrooms, Private Bathroom, City View
+x4
+Entire apartment
+2 bedrooms
+2 beds
+Free Cancellation
+₹ 7,078
+Total price: ₹ 41,722
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -264,8 +235,25 @@
 Two Bedroom Apartment
 x4
 Breakfast included
-₹ 18,743
-Total price: ₹ 115,272
+₹ 18,751
+Total price: ₹ 115,316
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Mövenpick Hotel &amp; Residences Nairobi
+Ad
+9.0/10
+Great96 reviews
+"Great service"
+"Great location"
+Near The Sarit Expo CentreShow on Map
+No. 1 of Gourmet Hotels in Nairobi
+Two-Bedroom Residence
+x4
+Free Cancellation
+₹ 18,274
+Total price: ₹ 114,213
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -281,8 +269,8 @@
 Family Room
 x4
 Free Cancellation
-₹ 22,199
-Total price: ₹ 142,070
+₹ 22,207
+Total price: ₹ 142,125
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -299,36 +287,32 @@
 3 beds
 Free Cancellation
 Breakfast included
-Earn ₹ 2,553.56 in Trip Coins
+Earn ₹ 2,554.50 in Trip Coins
 Only 2 left at this price
 Special Discount
 20% off
-₹ 37,360
-₹ 28,849
-Total price: ₹ 170,209
+₹ 37,374
+₹ 28,860
+Total price: ₹ 170,273
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
   </si>
   <si>
-    <t>The Concord Hotel &amp; Suites
-8.2/10
-Very good99 reviews
-"Great service"
-"Great rooms"
-Near The Sarit Expo CentreShow on Map
-Penthouse
-x4
-Entire unit
-2 bedrooms
-3 beds
-Breakfast included
-Only 1 left at this price
-Special Discount
-7% off
-₹ 37,849
-₹ 34,940
-Total price: ₹ 206,145
+    <t>Arcadia Hotel
+Renovated in 2025
+8.8/10
+Very good12 reviews
+Near Yaya CentreShow on Map
+Two-Bedroom Suite
+x4
+Entire unit 110㎡
+2 bedrooms
+2 beds
+Free Cancellation
+Only 5 left at this price
+₹ 7,851
+Total price: ₹ 45,535
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -343,41 +327,25 @@
 Fairview Suite
 x4
 Free Cancellation
-₹ 57,950
-Total price: ₹ 370,880
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>ZZZ hostel Nairobi
-New to Trip.com
-8.5/10
-Very good3 reviews
-7.6 km from centreShow on Map
-Comfort Twin Room
-x5
-₹ 7,898
-Total price: ₹ 46,557
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Highlands Suites Hotel Apartments
-8.3/10
-Very good27 reviews
-Near Yaya CentreShow on Map
+₹ 57,972
+Total price: ₹ 371,021
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>The King Post
+7.7/10
+Good17 reviews
+Near The Sarit Expo CentreShow on Map
 Two-Bedroom Apartment
 x4
-Entire unit
-2 bedrooms
-2 beds
-Free Cancellation
-Only 1 left at this price
-₹ 11,098
-Total price: ₹ 65,478
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
+Entire unit 97㎡
+2 bedrooms
+2 beds
+₹ 6,389
+Total price: ₹ 37,624
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
   </si>
   <si>
     <t>Mövenpick Hotel &amp; Residences Nairobi
@@ -390,33 +358,22 @@
 Two-Bedroom Residence
 x4
 Free Cancellation
-₹ 18,267
-Total price: ₹ 114,169
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Lux Suites Riara One Residency Angama
+₹ 18,274
+Total price: ₹ 114,213
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Lavington Residences By Trianum
 Opened in 2025
-9.9/10
-Outstanding17 reviews
-"Clean and tidy"
-"Great location"
-Near Yaya CentreShow on Map
-Family Room
-x4
-Entire apartment 98㎡
-2 bedrooms
-2 beds
-Free Cancellation
-Breakfast included
-Earn ₹ 1,345.83 in Trip Coins
-Only 5 left at this price
-Special Discount
-8% off
-₹ 16,680
-₹ 15,202
-Total price: ₹ 89,689
+9.4/10
+Amazing4 reviews
+Near Yaya CentreShow on Map
+Executive Two-Bedroom Apartment
+x4
+Only 1 left at this price
+₹ 10,368
+Total price: ₹ 61,173
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -434,8 +391,8 @@
 1 bedroom
 4 beds
 Breakfast included
-₹ 37,584
-Total price: ₹ 221,747
+₹ 37,599
+Total price: ₹ 221,831
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -452,9 +409,9 @@
 Free Cancellation
 Member deal
 13% off
-₹ 16,191
-₹ 13,855
-Total price: ₹ 81,748
+₹ 16,197
+₹ 13,861
+Total price: ₹ 81,779
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -467,38 +424,8 @@
 Near Giraffe manorShow on Map
 Executive Suite
 x4
-₹ 29,807
-Total price: ₹ 190,807
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Mövenpick Hotel &amp; Residences Nairobi
-Ad
-9.0/10
-Great96 reviews
-"Great service"
-"Great location"
-Near The Sarit Expo CentreShow on Map
-No. 1 of Gourmet Hotels in Nairobi
-Two-Bedroom Residence
-x4
-Free Cancellation
-₹ 18,267
-Total price: ₹ 114,169
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Heri Heights Hotel Apartments, SureStay Collection by BW
-8.2/10
-Very good41 reviews
-Near National Museum of KenyaShow on Map
-Apartment-2 Queen 2 Single Beds, Non-Smoking, Superior Room, Three Bedrooms, Lounge Area, Washer And Dryer, Wi-Fi, Full Breakfast
-x4
-Breakfast included
-₹ 13,977
-Total price: ₹ 84,562
+₹ 29,818
+Total price: ₹ 190,879
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -586,40 +513,40 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="C4" t="s" s="0">
         <v>10</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>13</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>15</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>17</v>
@@ -630,7 +557,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>19</v>
@@ -641,51 +568,48 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="C9" t="s" s="0">
         <v>22</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>24</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>26</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
